--- a/ny_blocks.xlsx
+++ b/ny_blocks.xlsx
@@ -608,107 +608,107 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Block Group 1; Census Tract 1; Albany County; New York</t>
+          <t>Block Group 5, Census Tract 128, Broome County, New York</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>437</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>148</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>134</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>423</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>53900</t>
+          <t>72500</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>272</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>54050</t>
+          <t>72500</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>36493</t>
+          <t>42051</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -718,169 +718,169 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>007</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>012800</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>391</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>368</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>523</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>423</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>20.9</t>
+          <t>-666666666.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Block Group 2; Census Tract 1; Albany County; New York</t>
+          <t>Block Group 2, Census Tract 130, Broome County, New York</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>424</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>262</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>107</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>108</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>19</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>62</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>33750</t>
+          <t>79732</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>171</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>33750</t>
+          <t>-666666666</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>14825</t>
+          <t>33970</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -890,89 +890,89 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>007</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>013000</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>305</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>286</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>408</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>22.4</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>282</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>51.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Block Group 1; Census Tract 2.01; Albany County; New York</t>
+          <t>Block Group 1, Census Tract 131, Broome County, New York</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>465</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>366</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>109</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -997,471 +997,471 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>193</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>59919</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>59919</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>28530</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>013100</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>50481</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>50481</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>33451</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>000201</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>326</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-666666666.00</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>51.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Block Group 2; Census Tract 2.01; Albany County; New York</t>
+          <t>Block Group 1, Census Tract 132.01, Broome County, New York</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>632</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>225</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>267</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>49813</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>49813</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>32860</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>463</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>718</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>17490</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>17490</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>15049</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>000201</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>1090</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>740</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>603</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>24.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Block Group 3; Census Tract 2.01; Albany County; New York</t>
+          <t>Block Group 2, Census Tract 132.02, Broome County, New York</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>593</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>210</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>332</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>412</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>71518</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>70536</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>39559</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>013202</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>44583</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>85603</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>55546</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>000201</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>986</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>28.2</t>
+          <t>23.9</t>
         </is>
       </c>
     </row>
